--- a/touch_data.xlsx
+++ b/touch_data.xlsx
@@ -3474,7 +3474,7 @@
     <t>https://touch.com.ua/</t>
   </si>
   <si>
-    <t>Серийный номер</t>
+    <t>Серійний номер</t>
   </si>
   <si>
     <t>SM-G998BZKDSEK</t>
@@ -4920,7 +4920,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E574"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/touch_data.xlsx
+++ b/touch_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="1520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="1151">
   <si>
     <t>Назва</t>
   </si>
@@ -3472,1113 +3472,6 @@
   </si>
   <si>
     <t>https://touch.com.ua/</t>
-  </si>
-  <si>
-    <t>Серійний номер</t>
-  </si>
-  <si>
-    <t>SM-G998BZKDSEK</t>
-  </si>
-  <si>
-    <t>SM-M325FZKG</t>
-  </si>
-  <si>
-    <t>SM-A325FZKGSEK</t>
-  </si>
-  <si>
-    <t>SM-M325FZWG</t>
-  </si>
-  <si>
-    <t>Cloud Navy</t>
-  </si>
-  <si>
-    <t>SM-S908BZKD</t>
-  </si>
-  <si>
-    <t>SM-S908BZKG</t>
-  </si>
-  <si>
-    <t>SM-S901BZKD</t>
-  </si>
-  <si>
-    <t>SM-S901BZGD</t>
-  </si>
-  <si>
-    <t>Cloud Mint</t>
-  </si>
-  <si>
-    <t>SM-S908BDRG</t>
-  </si>
-  <si>
-    <t>SM-A336BZKGSEK</t>
-  </si>
-  <si>
-    <t>SM-G990BZAGSEK</t>
-  </si>
-  <si>
-    <t>SM-S908BDRD</t>
-  </si>
-  <si>
-    <t>SM-S908BZGDSEK</t>
-  </si>
-  <si>
-    <t>SM-S9080</t>
-  </si>
-  <si>
-    <t>SM-S901BZKGSEK</t>
-  </si>
-  <si>
-    <t>SM-A536BZKL</t>
-  </si>
-  <si>
-    <t>SM-F721BLVG</t>
-  </si>
-  <si>
-    <t>SM-S9060</t>
-  </si>
-  <si>
-    <t>SM-A135FZKV</t>
-  </si>
-  <si>
-    <t>SM-F7210</t>
-  </si>
-  <si>
-    <t>SM-M236BZGG</t>
-  </si>
-  <si>
-    <t>SM-A135FZWV</t>
-  </si>
-  <si>
-    <t>SM-A035FZKD</t>
-  </si>
-  <si>
-    <t>S9010</t>
-  </si>
-  <si>
-    <t>A226B</t>
-  </si>
-  <si>
-    <t>SM-S901BZGG</t>
-  </si>
-  <si>
-    <t>SM-S906BZKG</t>
-  </si>
-  <si>
-    <t>SM-A035FZKG</t>
-  </si>
-  <si>
-    <t>Cloud Lavender</t>
-  </si>
-  <si>
-    <t>SM-F721BZDG</t>
-  </si>
-  <si>
-    <t>SM-S901BLVD</t>
-  </si>
-  <si>
-    <t>S9080</t>
-  </si>
-  <si>
-    <t>SM-A135FZKK</t>
-  </si>
-  <si>
-    <t>SM-A536BZWL</t>
-  </si>
-  <si>
-    <t>SM-S908BZGH</t>
-  </si>
-  <si>
-    <t>SM-S908BZKHSEK</t>
-  </si>
-  <si>
-    <t>SM-F936BZKB</t>
-  </si>
-  <si>
-    <t>SM-F721BZAG</t>
-  </si>
-  <si>
-    <t>SM-S908BZGGSEK</t>
-  </si>
-  <si>
-    <t>SM-M336BZGG</t>
-  </si>
-  <si>
-    <t>SM-A325FZKG</t>
-  </si>
-  <si>
-    <t>SM-A135FZOG</t>
-  </si>
-  <si>
-    <t>SM-M526B</t>
-  </si>
-  <si>
-    <t>SM-S906BZGG</t>
-  </si>
-  <si>
-    <t>SM-M336BZBG</t>
-  </si>
-  <si>
-    <t>SM-A336BLBG</t>
-  </si>
-  <si>
-    <t>SM-M526BZKHSEK</t>
-  </si>
-  <si>
-    <t>SM-A035FZBG</t>
-  </si>
-  <si>
-    <t>SM-A135FLBV</t>
-  </si>
-  <si>
-    <t>SM-A135FZWK</t>
-  </si>
-  <si>
-    <t>SM-S901BZWD</t>
-  </si>
-  <si>
-    <t>SM-S908BZWD</t>
-  </si>
-  <si>
-    <t>SM-S901BZWG</t>
-  </si>
-  <si>
-    <t>SM-M536BZBD</t>
-  </si>
-  <si>
-    <t>SM-F936BZAB</t>
-  </si>
-  <si>
-    <t>SM-A135FLBK</t>
-  </si>
-  <si>
-    <t>SM-A037FZBDSEK</t>
-  </si>
-  <si>
-    <t>SM-A336BZWGSEK</t>
-  </si>
-  <si>
-    <t>SM-S908BDRHSEK</t>
-  </si>
-  <si>
-    <t>SM-A032FLGD</t>
-  </si>
-  <si>
-    <t>SM-S906BZKD</t>
-  </si>
-  <si>
-    <t>SM-S901BIDDSEK</t>
-  </si>
-  <si>
-    <t>SM-A035FZRG</t>
-  </si>
-  <si>
-    <t>SM-S908BZWGSEK</t>
-  </si>
-  <si>
-    <t>SM-A037FZKDSEK</t>
-  </si>
-  <si>
-    <t>SM-A135FZKU</t>
-  </si>
-  <si>
-    <t>SM-A536BLBL</t>
-  </si>
-  <si>
-    <t>SM-F721BLVH</t>
-  </si>
-  <si>
-    <t>SM-G990BLGWSEK</t>
-  </si>
-  <si>
-    <t>SM-F721BZAH</t>
-  </si>
-  <si>
-    <t>SM-S906BZGD</t>
-  </si>
-  <si>
-    <t>SM-A037FZBGSEK</t>
-  </si>
-  <si>
-    <t>SM-M536BZGD</t>
-  </si>
-  <si>
-    <t>SM-M135FZGG</t>
-  </si>
-  <si>
-    <t>SM-F936BZKC</t>
-  </si>
-  <si>
-    <t>SM-M236BLBG</t>
-  </si>
-  <si>
-    <t>SM-A135FZWU</t>
-  </si>
-  <si>
-    <t>SM-A035FZBD</t>
-  </si>
-  <si>
-    <t>SM-A536BZOL</t>
-  </si>
-  <si>
-    <t>SM-S906BIDG</t>
-  </si>
-  <si>
-    <t>SM-A325FLVG</t>
-  </si>
-  <si>
-    <t>SM-M236BIDG</t>
-  </si>
-  <si>
-    <t>Cloud Red</t>
-  </si>
-  <si>
-    <t>SM-S906BZWG</t>
-  </si>
-  <si>
-    <t>SM-F936BZEC</t>
-  </si>
-  <si>
-    <t>SM-A037FZKGSEK</t>
-  </si>
-  <si>
-    <t>SM-G990BZWG</t>
-  </si>
-  <si>
-    <t>SM-A032FZCD</t>
-  </si>
-  <si>
-    <t>SM-A326B</t>
-  </si>
-  <si>
-    <t>SM-M536BZNDSEK</t>
-  </si>
-  <si>
-    <t>SM-M135FLBG</t>
-  </si>
-  <si>
-    <t>SM-G990BLVWSEK</t>
-  </si>
-  <si>
-    <t>SM-A325FZBG</t>
-  </si>
-  <si>
-    <t>SM-F721B</t>
-  </si>
-  <si>
-    <t>SM-F936BZEB</t>
-  </si>
-  <si>
-    <t>SM-S908BZWHSEK</t>
-  </si>
-  <si>
-    <t>SM-A536ELBG</t>
-  </si>
-  <si>
-    <t>SM-A135FLBU</t>
-  </si>
-  <si>
-    <t>SM-A536EZWG</t>
-  </si>
-  <si>
-    <t>SM-M135FIDG</t>
-  </si>
-  <si>
-    <t>SM-F936BZAC</t>
-  </si>
-  <si>
-    <t>SM-F721BZDH</t>
-  </si>
-  <si>
-    <t>SM-M526BLBH</t>
-  </si>
-  <si>
-    <t>SM-A326FZKD</t>
-  </si>
-  <si>
-    <t>SM-M135F</t>
-  </si>
-  <si>
-    <t>SM-S906BIDD</t>
-  </si>
-  <si>
-    <t>SM-A325FZWD</t>
-  </si>
-  <si>
-    <t>SM-A536BZON</t>
-  </si>
-  <si>
-    <t>SM-S901BIDGSEK</t>
-  </si>
-  <si>
-    <t>SM-M236BLBDSEK</t>
-  </si>
-  <si>
-    <t>SM-M526BZWHSEK</t>
-  </si>
-  <si>
-    <t>SM-A326BR</t>
-  </si>
-  <si>
-    <t>Cloud Orange</t>
-  </si>
-  <si>
-    <t>SM-A326FZKG</t>
-  </si>
-  <si>
-    <t>SM-S906BZWD</t>
-  </si>
-  <si>
-    <t>SM-M536BZND</t>
-  </si>
-  <si>
-    <t>Cloud White</t>
-  </si>
-  <si>
-    <t>SM-M236BZGGSEK</t>
-  </si>
-  <si>
-    <t>SM-A325FZBDSEK</t>
-  </si>
-  <si>
-    <t>SM-A326FZWD</t>
-  </si>
-  <si>
-    <t>SM-M236BLBGSEK</t>
-  </si>
-  <si>
-    <t>SM-F936BZKCSEK</t>
-  </si>
-  <si>
-    <t>SM-F936BZKBSEK</t>
-  </si>
-  <si>
-    <t>SM-F721BLBHSEK</t>
-  </si>
-  <si>
-    <t>SM-M236BIDGSEK</t>
-  </si>
-  <si>
-    <t>SM-F721BZAGSEK</t>
-  </si>
-  <si>
-    <t>SM-F936BZACSEK</t>
-  </si>
-  <si>
-    <t>SM-F721BZAHSEK</t>
-  </si>
-  <si>
-    <t>SM-F721BLVHSEK</t>
-  </si>
-  <si>
-    <t>SM-G998BZSGSEK</t>
-  </si>
-  <si>
-    <t>SM-G990BZAD</t>
-  </si>
-  <si>
-    <t>SM-A536BZKN</t>
-  </si>
-  <si>
-    <t>Snapdragon</t>
-  </si>
-  <si>
-    <t>SM-A736BLGHSEK</t>
-  </si>
-  <si>
-    <t>SM-G996BZKDSEK</t>
-  </si>
-  <si>
-    <t>SM-A325FZKDSEK</t>
-  </si>
-  <si>
-    <t>SM-A736BZAHSEK</t>
-  </si>
-  <si>
-    <t>Mystic Black</t>
-  </si>
-  <si>
-    <t>SM-A536BLBN</t>
-  </si>
-  <si>
-    <t>SM-F926BZKDSEK</t>
-  </si>
-  <si>
-    <t>SM-F916BZKQ</t>
-  </si>
-  <si>
-    <t>SM-A536BZWN</t>
-  </si>
-  <si>
-    <t>SM-G990BLGD</t>
-  </si>
-  <si>
-    <t>SM-A325FLVDSEK</t>
-  </si>
-  <si>
-    <t>SM-A325FLVGSEK</t>
-  </si>
-  <si>
-    <t>SM-A235FZKU</t>
-  </si>
-  <si>
-    <t>SM-A035FZRGSEK</t>
-  </si>
-  <si>
-    <t>SM-A736BZADSEK</t>
-  </si>
-  <si>
-    <t>SM-M526BLBHSEK</t>
-  </si>
-  <si>
-    <t>SM-G990BLVD</t>
-  </si>
-  <si>
-    <t>SM-A035FZBDSEK</t>
-  </si>
-  <si>
-    <t>SM-A536EZKHSEK</t>
-  </si>
-  <si>
-    <t>SM-G990BZWDSEK</t>
-  </si>
-  <si>
-    <t>SM-A536ELBHSEK</t>
-  </si>
-  <si>
-    <t>Mystic Grey</t>
-  </si>
-  <si>
-    <t>SM-A325FZWDSEK</t>
-  </si>
-  <si>
-    <t>SM-M325FLBG</t>
-  </si>
-  <si>
-    <t>SM-F916BZNQ</t>
-  </si>
-  <si>
-    <t>SM-S908BZGG</t>
-  </si>
-  <si>
-    <t>SM-A736BLGDSEK</t>
-  </si>
-  <si>
-    <t>SM-S908BZWG</t>
-  </si>
-  <si>
-    <t>SM-A336BZKG</t>
-  </si>
-  <si>
-    <t>SM-A235FZOU</t>
-  </si>
-  <si>
-    <t>SM-F926BZGGSEK</t>
-  </si>
-  <si>
-    <t>SM-F926BZSDSEK</t>
-  </si>
-  <si>
-    <t>SM-A035FZKGSEK</t>
-  </si>
-  <si>
-    <t>SM-F926BZKGSEK</t>
-  </si>
-  <si>
-    <t>SM-F926BZGDSEK</t>
-  </si>
-  <si>
-    <t>SM-M236BZGDSEK</t>
-  </si>
-  <si>
-    <t>SM-A035FZBGSEK</t>
-  </si>
-  <si>
-    <t>SM-A536EZWHSEK</t>
-  </si>
-  <si>
-    <t>SM-S908BZGD</t>
-  </si>
-  <si>
-    <t>SM-A035FZKDSEK</t>
-  </si>
-  <si>
-    <t>SM-A035FZRDSEK</t>
-  </si>
-  <si>
-    <t>SM-F926BZSGSEK</t>
-  </si>
-  <si>
-    <t>SM-A235FZWU</t>
-  </si>
-  <si>
-    <t>SM-A536EZWDSEK</t>
-  </si>
-  <si>
-    <t>SM-S901BIDD</t>
-  </si>
-  <si>
-    <t>SM-A336BZWG</t>
-  </si>
-  <si>
-    <t>SM-A536EZKDSEK</t>
-  </si>
-  <si>
-    <t>SM-A336BZOG</t>
-  </si>
-  <si>
-    <t>SM-G991BZADSEK</t>
-  </si>
-  <si>
-    <t>SM-A525FZKDSEK</t>
-  </si>
-  <si>
-    <t>SM-A525F</t>
-  </si>
-  <si>
-    <t>SM-G780FZBD</t>
-  </si>
-  <si>
-    <t>SM-G975FZKD</t>
-  </si>
-  <si>
-    <t>SM-G998BZKGSEK</t>
-  </si>
-  <si>
-    <t>SM-N970FZKD</t>
-  </si>
-  <si>
-    <t>SM-A525FLVISEK</t>
-  </si>
-  <si>
-    <t>SM-F711BZKBSEK</t>
-  </si>
-  <si>
-    <t>SM-G988BZADSEK</t>
-  </si>
-  <si>
-    <t>SM-G980FZAD</t>
-  </si>
-  <si>
-    <t>SM-A525FZKISEK</t>
-  </si>
-  <si>
-    <t>SM-G988BZKDSEK</t>
-  </si>
-  <si>
-    <t>SM-N975FZKD</t>
-  </si>
-  <si>
-    <t>SM-A525FLVDSEK</t>
-  </si>
-  <si>
-    <t>SM-A536EZKG</t>
-  </si>
-  <si>
-    <t>SM-M127FZKV</t>
-  </si>
-  <si>
-    <t>SM-A235FZKK</t>
-  </si>
-  <si>
-    <t>SM-A525FZBDSEK</t>
-  </si>
-  <si>
-    <t>SM-A125FZKVSEK</t>
-  </si>
-  <si>
-    <t>SM-G985FZKD</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>SM-G991BZAGSEK</t>
-  </si>
-  <si>
-    <t>SM-G998BZKHSEK</t>
-  </si>
-  <si>
-    <t>SM-G991BZVDSEK</t>
-  </si>
-  <si>
-    <t>SM-A525FZWDSEK</t>
-  </si>
-  <si>
-    <t>SM-G998BZSDSEK</t>
-  </si>
-  <si>
-    <t>Gray</t>
-  </si>
-  <si>
-    <t>SM-G780FZBH</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>SM-G780FLVD</t>
-  </si>
-  <si>
-    <t>SM-A725FZKH</t>
-  </si>
-  <si>
-    <t>SM-N970FZSD</t>
-  </si>
-  <si>
-    <t>SM-N985FZKG</t>
-  </si>
-  <si>
-    <t>SM-N985FZNG</t>
-  </si>
-  <si>
-    <t>SM-A725FZKDSEK</t>
-  </si>
-  <si>
-    <t>SM-M536BZGDSEK</t>
-  </si>
-  <si>
-    <t>SM-N975FZSD</t>
-  </si>
-  <si>
-    <t>SM-G996BZSDSEK</t>
-  </si>
-  <si>
-    <t>SM-G991BZWDSEK</t>
-  </si>
-  <si>
-    <t>SM-N985FZWG</t>
-  </si>
-  <si>
-    <t>SM-A225FZKD</t>
-  </si>
-  <si>
-    <t>Cloud Blue</t>
-  </si>
-  <si>
-    <t>SM-G985FZAD</t>
-  </si>
-  <si>
-    <t>SM-A013FZKD</t>
-  </si>
-  <si>
-    <t>SM-G998BZSHSEK</t>
-  </si>
-  <si>
-    <t>SM-G980FLBD</t>
-  </si>
-  <si>
-    <t>SM-G780FZGD</t>
-  </si>
-  <si>
-    <t>SM-G991BZIDSEK</t>
-  </si>
-  <si>
-    <t>SM-A225FZWD</t>
-  </si>
-  <si>
-    <t>SM-M127FZKVSEK</t>
-  </si>
-  <si>
-    <t>SM-A725FZWDSEK</t>
-  </si>
-  <si>
-    <t>SM-A025FZWESEK</t>
-  </si>
-  <si>
-    <t>Cosmic Gray</t>
-  </si>
-  <si>
-    <t>Mystic Bronze</t>
-  </si>
-  <si>
-    <t>SM-F700FZPD</t>
-  </si>
-  <si>
-    <t>SM-A032FZKDSEK</t>
-  </si>
-  <si>
-    <t>Mystic White</t>
-  </si>
-  <si>
-    <t>Cloud Pink</t>
-  </si>
-  <si>
-    <t>SM-F711BZKA</t>
-  </si>
-  <si>
-    <t>SM-G996BZKGSEK</t>
-  </si>
-  <si>
-    <t>SM-G975FCKG</t>
-  </si>
-  <si>
-    <t>Prism Silver</t>
-  </si>
-  <si>
-    <t>Cosmic Black</t>
-  </si>
-  <si>
-    <t>SM-G975FCKH</t>
-  </si>
-  <si>
-    <t>Aura Blue</t>
-  </si>
-  <si>
-    <t>SM-G975FZWD</t>
-  </si>
-  <si>
-    <t>SM-A022GZRBSEK</t>
-  </si>
-  <si>
-    <t>SM-N980FZGG</t>
-  </si>
-  <si>
-    <t>Prism Blue</t>
-  </si>
-  <si>
-    <t>SM-A022GZKBSEK</t>
-  </si>
-  <si>
-    <t>SM-A225FZWG</t>
-  </si>
-  <si>
-    <t>SM-A125FZKUSEK</t>
-  </si>
-  <si>
-    <t>SM-G990BZAG</t>
-  </si>
-  <si>
-    <t>SM-G996BZVDSEK</t>
-  </si>
-  <si>
-    <t>SM-A125FZRVSEK</t>
-  </si>
-  <si>
-    <t>SM-M115FZKN</t>
-  </si>
-  <si>
-    <t>SM-A235FZOK</t>
-  </si>
-  <si>
-    <t>SM-A725FLVH</t>
-  </si>
-  <si>
-    <t>SM-N975FZWD</t>
-  </si>
-  <si>
-    <t>SM-G985FZLD</t>
-  </si>
-  <si>
-    <t>SM-A025FZKESEK</t>
-  </si>
-  <si>
-    <t>SM-G991BZVGSEK</t>
-  </si>
-  <si>
-    <t>SM-A015FZKD</t>
-  </si>
-  <si>
-    <t>SM-A736BLGG</t>
-  </si>
-  <si>
-    <t>SM-A725FZBDSEK</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>SM-A217FZKN</t>
-  </si>
-  <si>
-    <t>SM-M336BZNG</t>
-  </si>
-  <si>
-    <t>SM-G996BZSGSEK</t>
-  </si>
-  <si>
-    <t>SM-G975FZGD</t>
-  </si>
-  <si>
-    <t>SM-G780FZRD</t>
-  </si>
-  <si>
-    <t>Mystic Green</t>
-  </si>
-  <si>
-    <t>SM-G780FZOD</t>
-  </si>
-  <si>
-    <t>SM-S901BZKG</t>
-  </si>
-  <si>
-    <t>SM-G991BZIGSEK</t>
-  </si>
-  <si>
-    <t>SM-G975FCWG</t>
-  </si>
-  <si>
-    <t>SM-G780FZWD</t>
-  </si>
-  <si>
-    <t>SM-M115FMBN</t>
-  </si>
-  <si>
-    <t>SM-A725FLVDSEK</t>
-  </si>
-  <si>
-    <t>SM-A127FZBVSEK</t>
-  </si>
-  <si>
-    <t>SM-A736BZAG</t>
-  </si>
-  <si>
-    <t>SM-G780FZGH</t>
-  </si>
-  <si>
-    <t>SM-M536BZBDSEK</t>
-  </si>
-  <si>
-    <t>SM-N980FZAG</t>
-  </si>
-  <si>
-    <t>SM-M127FZGV</t>
-  </si>
-  <si>
-    <t>SM-A125FZBVSEK</t>
-  </si>
-  <si>
-    <t>SM-G990BLGG</t>
-  </si>
-  <si>
-    <t>SM-A225FZKG</t>
-  </si>
-  <si>
-    <t>SM-M225FZKGSEK</t>
-  </si>
-  <si>
-    <t>SM-A125FZBUSEK</t>
-  </si>
-  <si>
-    <t>Pink</t>
-  </si>
-  <si>
-    <t>SM-M225FLBGSEK</t>
-  </si>
-  <si>
-    <t>SM-A013FZBD</t>
-  </si>
-  <si>
-    <t>SM-F900FZSD</t>
-  </si>
-  <si>
-    <t>SM-A013FZRD</t>
-  </si>
-  <si>
-    <t>SM-M127FLBV</t>
-  </si>
-  <si>
-    <t>SM-A207FZKD</t>
-  </si>
-  <si>
-    <t>Light Blue</t>
-  </si>
-  <si>
-    <t>SM-A015FZBD</t>
-  </si>
-  <si>
-    <t>SM-F711BZGASEK</t>
-  </si>
-  <si>
-    <t>SM-F711BZKESEK</t>
-  </si>
-  <si>
-    <t>SM-G996BZVGSEK</t>
-  </si>
-  <si>
-    <t>SM-N980FZNG</t>
-  </si>
-  <si>
-    <t>SM-A235FZWK</t>
-  </si>
-  <si>
-    <t>Aura Glow</t>
-  </si>
-  <si>
-    <t>SM-A125FZRUSEK</t>
-  </si>
-  <si>
-    <t>SM-G975FCWH</t>
-  </si>
-  <si>
-    <t>SM-A127FZRVSEK</t>
-  </si>
-  <si>
-    <t>SM-A127FZKUSEK</t>
-  </si>
-  <si>
-    <t>SM-M115FZLN</t>
-  </si>
-  <si>
-    <t>SM-G985FZRD</t>
-  </si>
-  <si>
-    <t>SM-A022GZBBSEK</t>
-  </si>
-  <si>
-    <t>SM-G991BZWGSEK</t>
-  </si>
-  <si>
-    <t>SM-A025FZBESEK</t>
-  </si>
-  <si>
-    <t>SM-N970FZSW</t>
-  </si>
-  <si>
-    <t>SM-A225FLGD</t>
-  </si>
-  <si>
-    <t>SM-A736BZWHSEK</t>
-  </si>
-  <si>
-    <t>SM-N970FZPD</t>
-  </si>
-  <si>
-    <t>Cosmic Grey</t>
-  </si>
-  <si>
-    <t>SM-F711BZEASEK</t>
-  </si>
-  <si>
-    <t>SM-A217FZWN</t>
-  </si>
-  <si>
-    <t>SM-F7110</t>
-  </si>
-  <si>
-    <t>SM-A207FZBD</t>
-  </si>
-  <si>
-    <t>SM-F900FZKD</t>
-  </si>
-  <si>
-    <t>SM-A207FZRD</t>
-  </si>
-  <si>
-    <t>SM-A736BZWG</t>
-  </si>
-  <si>
-    <t>SM-G990BLVG</t>
-  </si>
-  <si>
-    <t>Mystic Gray</t>
-  </si>
-  <si>
-    <t>Mirror Gold</t>
-  </si>
-  <si>
-    <t>SM-A217FZBN</t>
-  </si>
-  <si>
-    <t>SM-M225FZWGSEK</t>
-  </si>
-  <si>
-    <t>SM-G780FZRH</t>
-  </si>
-  <si>
-    <t>SM-N970FZRDSEK</t>
-  </si>
-  <si>
-    <t>SM-G975FZRD</t>
-  </si>
-  <si>
-    <t>SM-G990BZWD</t>
-  </si>
-  <si>
-    <t>SM-A015FZRD</t>
-  </si>
-  <si>
-    <t>SM-A736BZWH</t>
-  </si>
-  <si>
-    <t>SM-A035FZRD</t>
-  </si>
-  <si>
-    <t>SM-F707BZNASEK</t>
-  </si>
-  <si>
-    <t>SM-A037FZWGSEK</t>
-  </si>
-  <si>
-    <t>SM-S901BIDG</t>
-  </si>
-  <si>
-    <t>SM-M526BZWG</t>
-  </si>
-  <si>
-    <t>SM-M526BLBG</t>
-  </si>
-  <si>
-    <t>SM-A225FLGG</t>
-  </si>
-  <si>
-    <t>SM-A736BZWDSEK</t>
-  </si>
-  <si>
-    <t>SM-A032FZBDSEK</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>SM-M325FLBGSEK</t>
-  </si>
-  <si>
-    <t>SM-A127FZRUSEK</t>
-  </si>
-  <si>
-    <t>SM-F711BZEE</t>
-  </si>
-  <si>
-    <t>SM-A037FZWDSEK</t>
-  </si>
-  <si>
-    <t>SM-A736BLGH</t>
-  </si>
-  <si>
-    <t>SM-A127FZBUSEK</t>
-  </si>
-  <si>
-    <t>SM-F711BZKE</t>
-  </si>
-  <si>
-    <t>SM-M236BIDDSEK</t>
-  </si>
-  <si>
-    <t>SM-G780FLVH</t>
-  </si>
-  <si>
-    <t>SM-F711BZGA</t>
-  </si>
-  <si>
-    <t>SM-F711BLVASEK</t>
-  </si>
-  <si>
-    <t>SM-F711BZGE</t>
-  </si>
-  <si>
-    <t>SM-F711BZEA</t>
-  </si>
-  <si>
-    <t>SM-F711BLVESEK</t>
-  </si>
-  <si>
-    <t>SM-S908BZKH</t>
-  </si>
-  <si>
-    <t>SM-S908BDRH</t>
-  </si>
-  <si>
-    <t>SM-S908BZWH</t>
   </si>
 </sst>
 </file>
@@ -4918,18 +3811,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E574"/>
+  <dimension ref="A1:D574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="5" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4942,11 +3835,8 @@
       <c r="D1" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4959,11 +3849,8 @@
       <c r="D2" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4976,11 +3863,8 @@
       <c r="D3" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4993,11 +3877,8 @@
       <c r="D4" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -5010,11 +3891,8 @@
       <c r="D5" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5027,11 +3905,8 @@
       <c r="D6" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5044,11 +3919,8 @@
       <c r="D7" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5061,11 +3933,8 @@
       <c r="D8" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5078,11 +3947,8 @@
       <c r="D9" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5095,11 +3961,8 @@
       <c r="D10" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5112,11 +3975,8 @@
       <c r="D11" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -5129,11 +3989,8 @@
       <c r="D12" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -5146,11 +4003,8 @@
       <c r="D13" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -5163,11 +4017,8 @@
       <c r="D14" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -5180,11 +4031,8 @@
       <c r="D15" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -5197,11 +4045,8 @@
       <c r="D16" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5214,11 +4059,8 @@
       <c r="D17" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -5231,11 +4073,8 @@
       <c r="D18" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -5248,11 +4087,8 @@
       <c r="D19" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -5265,11 +4101,8 @@
       <c r="D20" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -5282,11 +4115,8 @@
       <c r="D21" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -5299,11 +4129,8 @@
       <c r="D22" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -5316,11 +4143,8 @@
       <c r="D23" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -5333,11 +4157,8 @@
       <c r="D24" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -5350,11 +4171,8 @@
       <c r="D25" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -5367,11 +4185,8 @@
       <c r="D26" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -5384,11 +4199,8 @@
       <c r="D27" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -5401,11 +4213,8 @@
       <c r="D28" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -5418,11 +4227,8 @@
       <c r="D29" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -5435,11 +4241,8 @@
       <c r="D30" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -5452,11 +4255,8 @@
       <c r="D31" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -5469,11 +4269,8 @@
       <c r="D32" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -5486,11 +4283,8 @@
       <c r="D33" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -5503,11 +4297,8 @@
       <c r="D34" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -5520,11 +4311,8 @@
       <c r="D35" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -5537,11 +4325,8 @@
       <c r="D36" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -5554,11 +4339,8 @@
       <c r="D37" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -5571,11 +4353,8 @@
       <c r="D38" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -5588,11 +4367,8 @@
       <c r="D39" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -5605,11 +4381,8 @@
       <c r="D40" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -5622,11 +4395,8 @@
       <c r="D41" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -5639,11 +4409,8 @@
       <c r="D42" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -5656,11 +4423,8 @@
       <c r="D43" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -5673,11 +4437,8 @@
       <c r="D44" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -5690,11 +4451,8 @@
       <c r="D45" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -5707,11 +4465,8 @@
       <c r="D46" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -5724,11 +4479,8 @@
       <c r="D47" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -5741,11 +4493,8 @@
       <c r="D48" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -5758,11 +4507,8 @@
       <c r="D49" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -5775,11 +4521,8 @@
       <c r="D50" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -5792,11 +4535,8 @@
       <c r="D51" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -5809,11 +4549,8 @@
       <c r="D52" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -5826,11 +4563,8 @@
       <c r="D53" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -5843,11 +4577,8 @@
       <c r="D54" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -5860,11 +4591,8 @@
       <c r="D55" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -5877,11 +4605,8 @@
       <c r="D56" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -5894,11 +4619,8 @@
       <c r="D57" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -5911,11 +4633,8 @@
       <c r="D58" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -5928,11 +4647,8 @@
       <c r="D59" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -5945,11 +4661,8 @@
       <c r="D60" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -5962,11 +4675,8 @@
       <c r="D61" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -5979,11 +4689,8 @@
       <c r="D62" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -5996,11 +4703,8 @@
       <c r="D63" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -6013,11 +4717,8 @@
       <c r="D64" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -6030,11 +4731,8 @@
       <c r="D65" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -6047,11 +4745,8 @@
       <c r="D66" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -6064,11 +4759,8 @@
       <c r="D67" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -6081,11 +4773,8 @@
       <c r="D68" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -6098,11 +4787,8 @@
       <c r="D69" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -6115,11 +4801,8 @@
       <c r="D70" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -6132,11 +4815,8 @@
       <c r="D71" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -6149,11 +4829,8 @@
       <c r="D72" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -6166,11 +4843,8 @@
       <c r="D73" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -6183,11 +4857,8 @@
       <c r="D74" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -6200,11 +4871,8 @@
       <c r="D75" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -6217,11 +4885,8 @@
       <c r="D76" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -6234,11 +4899,8 @@
       <c r="D77" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -6251,11 +4913,8 @@
       <c r="D78" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -6268,11 +4927,8 @@
       <c r="D79" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -6285,11 +4941,8 @@
       <c r="D80" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -6302,11 +4955,8 @@
       <c r="D81" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -6319,11 +4969,8 @@
       <c r="D82" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -6336,11 +4983,8 @@
       <c r="D83" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -6353,11 +4997,8 @@
       <c r="D84" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -6370,11 +5011,8 @@
       <c r="D85" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>171</v>
       </c>
@@ -6387,11 +5025,8 @@
       <c r="D86" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -6404,11 +5039,8 @@
       <c r="D87" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>175</v>
       </c>
@@ -6421,11 +5053,8 @@
       <c r="D88" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>177</v>
       </c>
@@ -6438,11 +5067,8 @@
       <c r="D89" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>179</v>
       </c>
@@ -6455,11 +5081,8 @@
       <c r="D90" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>181</v>
       </c>
@@ -6472,11 +5095,8 @@
       <c r="D91" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>183</v>
       </c>
@@ -6489,11 +5109,8 @@
       <c r="D92" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>185</v>
       </c>
@@ -6506,11 +5123,8 @@
       <c r="D93" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>187</v>
       </c>
@@ -6523,11 +5137,8 @@
       <c r="D94" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>189</v>
       </c>
@@ -6540,11 +5151,8 @@
       <c r="D95" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -6557,11 +5165,8 @@
       <c r="D96" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>193</v>
       </c>
@@ -6574,11 +5179,8 @@
       <c r="D97" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>195</v>
       </c>
@@ -6591,11 +5193,8 @@
       <c r="D98" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>197</v>
       </c>
@@ -6608,11 +5207,8 @@
       <c r="D99" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>199</v>
       </c>
@@ -6625,11 +5221,8 @@
       <c r="D100" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>201</v>
       </c>
@@ -6642,11 +5235,8 @@
       <c r="D101" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>203</v>
       </c>
@@ -6659,11 +5249,8 @@
       <c r="D102" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>205</v>
       </c>
@@ -6676,11 +5263,8 @@
       <c r="D103" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>207</v>
       </c>
@@ -6693,11 +5277,8 @@
       <c r="D104" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>209</v>
       </c>
@@ -6710,11 +5291,8 @@
       <c r="D105" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -6727,11 +5305,8 @@
       <c r="D106" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>213</v>
       </c>
@@ -6744,11 +5319,8 @@
       <c r="D107" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>215</v>
       </c>
@@ -6761,11 +5333,8 @@
       <c r="D108" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>217</v>
       </c>
@@ -6778,11 +5347,8 @@
       <c r="D109" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>219</v>
       </c>
@@ -6795,11 +5361,8 @@
       <c r="D110" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>221</v>
       </c>
@@ -6812,11 +5375,8 @@
       <c r="D111" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>223</v>
       </c>
@@ -6829,11 +5389,8 @@
       <c r="D112" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>225</v>
       </c>
@@ -6846,11 +5403,8 @@
       <c r="D113" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>227</v>
       </c>
@@ -6863,11 +5417,8 @@
       <c r="D114" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>229</v>
       </c>
@@ -6880,11 +5431,8 @@
       <c r="D115" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>231</v>
       </c>
@@ -6897,11 +5445,8 @@
       <c r="D116" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>233</v>
       </c>
@@ -6914,11 +5459,8 @@
       <c r="D117" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>235</v>
       </c>
@@ -6931,11 +5473,8 @@
       <c r="D118" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>237</v>
       </c>
@@ -6948,11 +5487,8 @@
       <c r="D119" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>239</v>
       </c>
@@ -6965,11 +5501,8 @@
       <c r="D120" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>241</v>
       </c>
@@ -6982,11 +5515,8 @@
       <c r="D121" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>243</v>
       </c>
@@ -6999,11 +5529,8 @@
       <c r="D122" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>245</v>
       </c>
@@ -7016,11 +5543,8 @@
       <c r="D123" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -7033,11 +5557,8 @@
       <c r="D124" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>249</v>
       </c>
@@ -7050,11 +5571,8 @@
       <c r="D125" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>251</v>
       </c>
@@ -7067,11 +5585,8 @@
       <c r="D126" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>253</v>
       </c>
@@ -7084,11 +5599,8 @@
       <c r="D127" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>255</v>
       </c>
@@ -7101,11 +5613,8 @@
       <c r="D128" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>257</v>
       </c>
@@ -7118,11 +5627,8 @@
       <c r="D129" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>259</v>
       </c>
@@ -7135,11 +5641,8 @@
       <c r="D130" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>261</v>
       </c>
@@ -7152,11 +5655,8 @@
       <c r="D131" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>263</v>
       </c>
@@ -7169,11 +5669,8 @@
       <c r="D132" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>265</v>
       </c>
@@ -7186,11 +5683,8 @@
       <c r="D133" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>267</v>
       </c>
@@ -7203,11 +5697,8 @@
       <c r="D134" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>269</v>
       </c>
@@ -7220,11 +5711,8 @@
       <c r="D135" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>271</v>
       </c>
@@ -7237,11 +5725,8 @@
       <c r="D136" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>273</v>
       </c>
@@ -7254,11 +5739,8 @@
       <c r="D137" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>275</v>
       </c>
@@ -7271,11 +5753,8 @@
       <c r="D138" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>277</v>
       </c>
@@ -7288,11 +5767,8 @@
       <c r="D139" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>279</v>
       </c>
@@ -7305,11 +5781,8 @@
       <c r="D140" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>281</v>
       </c>
@@ -7322,11 +5795,8 @@
       <c r="D141" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>283</v>
       </c>
@@ -7339,11 +5809,8 @@
       <c r="D142" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>285</v>
       </c>
@@ -7356,11 +5823,8 @@
       <c r="D143" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>287</v>
       </c>
@@ -7373,11 +5837,8 @@
       <c r="D144" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>289</v>
       </c>
@@ -7390,11 +5851,8 @@
       <c r="D145" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>291</v>
       </c>
@@ -7407,11 +5865,8 @@
       <c r="D146" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>293</v>
       </c>
@@ -7424,11 +5879,8 @@
       <c r="D147" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E147" s="1" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>295</v>
       </c>
@@ -7441,11 +5893,8 @@
       <c r="D148" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>297</v>
       </c>
@@ -7458,11 +5907,8 @@
       <c r="D149" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E149" s="1" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>299</v>
       </c>
@@ -7475,11 +5921,8 @@
       <c r="D150" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>301</v>
       </c>
@@ -7492,11 +5935,8 @@
       <c r="D151" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>303</v>
       </c>
@@ -7509,11 +5949,8 @@
       <c r="D152" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E152" s="1" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>305</v>
       </c>
@@ -7526,11 +5963,8 @@
       <c r="D153" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E153" s="1" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>307</v>
       </c>
@@ -7543,11 +5977,8 @@
       <c r="D154" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E154" s="1" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>309</v>
       </c>
@@ -7560,11 +5991,8 @@
       <c r="D155" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E155" s="1" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>311</v>
       </c>
@@ -7577,11 +6005,8 @@
       <c r="D156" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>313</v>
       </c>
@@ -7594,11 +6019,8 @@
       <c r="D157" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>315</v>
       </c>
@@ -7611,11 +6033,8 @@
       <c r="D158" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E158" s="1" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>317</v>
       </c>
@@ -7628,11 +6047,8 @@
       <c r="D159" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>319</v>
       </c>
@@ -7645,11 +6061,8 @@
       <c r="D160" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E160" s="1" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>321</v>
       </c>
@@ -7662,11 +6075,8 @@
       <c r="D161" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>323</v>
       </c>
@@ -7679,11 +6089,8 @@
       <c r="D162" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E162" s="1" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>325</v>
       </c>
@@ -7696,11 +6103,8 @@
       <c r="D163" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E163" s="1" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>327</v>
       </c>
@@ -7713,11 +6117,8 @@
       <c r="D164" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E164" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>329</v>
       </c>
@@ -7730,11 +6131,8 @@
       <c r="D165" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E165" s="1" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>331</v>
       </c>
@@ -7747,11 +6145,8 @@
       <c r="D166" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E166" s="1" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>333</v>
       </c>
@@ -7764,11 +6159,8 @@
       <c r="D167" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>335</v>
       </c>
@@ -7781,11 +6173,8 @@
       <c r="D168" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>337</v>
       </c>
@@ -7798,11 +6187,8 @@
       <c r="D169" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>339</v>
       </c>
@@ -7815,11 +6201,8 @@
       <c r="D170" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E170" s="1" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>341</v>
       </c>
@@ -7832,11 +6215,8 @@
       <c r="D171" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E171" s="1" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>343</v>
       </c>
@@ -7849,11 +6229,8 @@
       <c r="D172" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E172" s="1" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>345</v>
       </c>
@@ -7866,11 +6243,8 @@
       <c r="D173" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E173" s="1" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>347</v>
       </c>
@@ -7883,11 +6257,8 @@
       <c r="D174" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E174" s="1" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>349</v>
       </c>
@@ -7900,11 +6271,8 @@
       <c r="D175" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E175" s="1" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>351</v>
       </c>
@@ -7917,11 +6285,8 @@
       <c r="D176" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E176" s="1" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>353</v>
       </c>
@@ -7934,11 +6299,8 @@
       <c r="D177" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E177" s="1" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>355</v>
       </c>
@@ -7951,11 +6313,8 @@
       <c r="D178" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E178" s="1" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>357</v>
       </c>
@@ -7968,11 +6327,8 @@
       <c r="D179" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E179" s="1" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>359</v>
       </c>
@@ -7985,11 +6341,8 @@
       <c r="D180" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E180" s="1" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>361</v>
       </c>
@@ -8002,11 +6355,8 @@
       <c r="D181" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E181" s="1" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>363</v>
       </c>
@@ -8019,11 +6369,8 @@
       <c r="D182" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E182" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>365</v>
       </c>
@@ -8036,11 +6383,8 @@
       <c r="D183" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E183" s="1" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>367</v>
       </c>
@@ -8053,11 +6397,8 @@
       <c r="D184" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>369</v>
       </c>
@@ -8070,11 +6411,8 @@
       <c r="D185" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E185" s="1" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>371</v>
       </c>
@@ -8087,11 +6425,8 @@
       <c r="D186" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E186" s="1" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>373</v>
       </c>
@@ -8104,11 +6439,8 @@
       <c r="D187" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E187" s="1" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>375</v>
       </c>
@@ -8121,11 +6453,8 @@
       <c r="D188" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E188" s="1" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>377</v>
       </c>
@@ -8138,11 +6467,8 @@
       <c r="D189" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E189" s="1" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>379</v>
       </c>
@@ -8155,11 +6481,8 @@
       <c r="D190" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>381</v>
       </c>
@@ -8172,11 +6495,8 @@
       <c r="D191" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>383</v>
       </c>
@@ -8189,11 +6509,8 @@
       <c r="D192" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>385</v>
       </c>
@@ -8206,11 +6523,8 @@
       <c r="D193" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>387</v>
       </c>
@@ -8223,11 +6537,8 @@
       <c r="D194" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>389</v>
       </c>
@@ -8240,11 +6551,8 @@
       <c r="D195" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E195" s="1" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>391</v>
       </c>
@@ -8257,11 +6565,8 @@
       <c r="D196" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E196" s="1" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>393</v>
       </c>
@@ -8274,11 +6579,8 @@
       <c r="D197" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E197" s="1" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>395</v>
       </c>
@@ -8291,11 +6593,8 @@
       <c r="D198" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E198" s="1" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>397</v>
       </c>
@@ -8308,11 +6607,8 @@
       <c r="D199" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E199" s="1" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>399</v>
       </c>
@@ -8325,11 +6621,8 @@
       <c r="D200" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E200" s="1" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>401</v>
       </c>
@@ -8342,11 +6635,8 @@
       <c r="D201" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E201" s="1" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>403</v>
       </c>
@@ -8359,11 +6649,8 @@
       <c r="D202" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E202" s="1" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>405</v>
       </c>
@@ -8376,11 +6663,8 @@
       <c r="D203" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E203" s="1" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>407</v>
       </c>
@@ -8393,11 +6677,8 @@
       <c r="D204" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E204" s="1" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>409</v>
       </c>
@@ -8410,11 +6691,8 @@
       <c r="D205" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E205" s="1" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>411</v>
       </c>
@@ -8427,11 +6705,8 @@
       <c r="D206" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E206" s="1" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>413</v>
       </c>
@@ -8444,11 +6719,8 @@
       <c r="D207" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E207" s="1" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>415</v>
       </c>
@@ -8461,11 +6733,8 @@
       <c r="D208" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E208" s="1" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>417</v>
       </c>
@@ -8478,11 +6747,8 @@
       <c r="D209" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E209" s="1" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>419</v>
       </c>
@@ -8495,11 +6761,8 @@
       <c r="D210" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E210" s="1" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>421</v>
       </c>
@@ -8512,11 +6775,8 @@
       <c r="D211" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E211" s="1" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>423</v>
       </c>
@@ -8529,11 +6789,8 @@
       <c r="D212" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E212" s="1" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>425</v>
       </c>
@@ -8546,11 +6803,8 @@
       <c r="D213" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E213" s="1" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>427</v>
       </c>
@@ -8563,11 +6817,8 @@
       <c r="D214" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E214" s="1" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>429</v>
       </c>
@@ -8580,11 +6831,8 @@
       <c r="D215" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E215" s="1" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>431</v>
       </c>
@@ -8597,11 +6845,8 @@
       <c r="D216" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E216" s="1" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>433</v>
       </c>
@@ -8614,11 +6859,8 @@
       <c r="D217" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E217" s="1" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>435</v>
       </c>
@@ -8631,11 +6873,8 @@
       <c r="D218" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E218" s="1" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>437</v>
       </c>
@@ -8648,11 +6887,8 @@
       <c r="D219" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E219" s="1" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>439</v>
       </c>
@@ -8665,11 +6901,8 @@
       <c r="D220" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E220" s="1" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>441</v>
       </c>
@@ -8682,11 +6915,8 @@
       <c r="D221" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E221" s="1" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>443</v>
       </c>
@@ -8699,11 +6929,8 @@
       <c r="D222" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E222" s="1" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>445</v>
       </c>
@@ -8716,11 +6943,8 @@
       <c r="D223" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E223" s="1" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>447</v>
       </c>
@@ -8733,11 +6957,8 @@
       <c r="D224" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E224" s="1" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>449</v>
       </c>
@@ -8750,11 +6971,8 @@
       <c r="D225" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E225" s="1" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>451</v>
       </c>
@@ -8767,11 +6985,8 @@
       <c r="D226" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E226" s="1" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>453</v>
       </c>
@@ -8784,11 +6999,8 @@
       <c r="D227" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E227" s="1" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>455</v>
       </c>
@@ -8801,11 +7013,8 @@
       <c r="D228" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E228" s="1" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>457</v>
       </c>
@@ -8818,11 +7027,8 @@
       <c r="D229" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E229" s="1" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>459</v>
       </c>
@@ -8835,11 +7041,8 @@
       <c r="D230" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E230" s="1" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>461</v>
       </c>
@@ -8852,11 +7055,8 @@
       <c r="D231" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E231" s="1" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>463</v>
       </c>
@@ -8869,11 +7069,8 @@
       <c r="D232" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E232" s="1" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>465</v>
       </c>
@@ -8886,11 +7083,8 @@
       <c r="D233" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E233" s="1" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>467</v>
       </c>
@@ -8903,11 +7097,8 @@
       <c r="D234" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E234" s="1" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>469</v>
       </c>
@@ -8920,11 +7111,8 @@
       <c r="D235" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E235" s="1" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>471</v>
       </c>
@@ -8937,11 +7125,8 @@
       <c r="D236" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E236" s="1" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>473</v>
       </c>
@@ -8954,11 +7139,8 @@
       <c r="D237" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E237" s="1" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>475</v>
       </c>
@@ -8971,11 +7153,8 @@
       <c r="D238" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E238" s="1" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>477</v>
       </c>
@@ -8988,11 +7167,8 @@
       <c r="D239" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E239" s="1" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>479</v>
       </c>
@@ -9005,11 +7181,8 @@
       <c r="D240" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E240" s="1" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>481</v>
       </c>
@@ -9022,11 +7195,8 @@
       <c r="D241" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E241" s="1" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>483</v>
       </c>
@@ -9039,11 +7209,8 @@
       <c r="D242" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E242" s="1" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>485</v>
       </c>
@@ -9056,11 +7223,8 @@
       <c r="D243" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E243" s="1" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>487</v>
       </c>
@@ -9073,11 +7237,8 @@
       <c r="D244" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E244" s="1" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>489</v>
       </c>
@@ -9090,11 +7251,8 @@
       <c r="D245" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E245" s="1" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>491</v>
       </c>
@@ -9107,11 +7265,8 @@
       <c r="D246" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E246" s="1" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>493</v>
       </c>
@@ -9124,11 +7279,8 @@
       <c r="D247" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E247" s="1" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>495</v>
       </c>
@@ -9141,11 +7293,8 @@
       <c r="D248" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E248" s="1" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>497</v>
       </c>
@@ -9158,11 +7307,8 @@
       <c r="D249" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E249" s="1" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>499</v>
       </c>
@@ -9175,11 +7321,8 @@
       <c r="D250" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E250" s="1" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>501</v>
       </c>
@@ -9192,11 +7335,8 @@
       <c r="D251" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E251" s="1" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>503</v>
       </c>
@@ -9209,11 +7349,8 @@
       <c r="D252" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E252" s="1" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>505</v>
       </c>
@@ -9226,11 +7363,8 @@
       <c r="D253" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E253" s="1" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>507</v>
       </c>
@@ -9243,11 +7377,8 @@
       <c r="D254" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E254" s="1" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>509</v>
       </c>
@@ -9260,11 +7391,8 @@
       <c r="D255" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E255" s="1" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>511</v>
       </c>
@@ -9277,11 +7405,8 @@
       <c r="D256" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E256" s="1" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>513</v>
       </c>
@@ -9294,11 +7419,8 @@
       <c r="D257" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E257" s="1" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>515</v>
       </c>
@@ -9311,11 +7433,8 @@
       <c r="D258" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E258" s="1" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>517</v>
       </c>
@@ -9328,11 +7447,8 @@
       <c r="D259" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E259" s="1" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>519</v>
       </c>
@@ -9345,11 +7461,8 @@
       <c r="D260" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E260" s="1" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>521</v>
       </c>
@@ -9362,11 +7475,8 @@
       <c r="D261" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E261" s="1" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>523</v>
       </c>
@@ -9379,11 +7489,8 @@
       <c r="D262" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E262" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>525</v>
       </c>
@@ -9396,11 +7503,8 @@
       <c r="D263" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E263" s="1" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>527</v>
       </c>
@@ -9413,11 +7517,8 @@
       <c r="D264" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E264" s="1" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>529</v>
       </c>
@@ -9430,11 +7531,8 @@
       <c r="D265" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E265" s="1" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>531</v>
       </c>
@@ -9447,11 +7545,8 @@
       <c r="D266" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E266" s="1" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>533</v>
       </c>
@@ -9464,11 +7559,8 @@
       <c r="D267" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E267" s="1" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>535</v>
       </c>
@@ -9481,11 +7573,8 @@
       <c r="D268" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E268" s="1" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>537</v>
       </c>
@@ -9498,11 +7587,8 @@
       <c r="D269" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E269" s="1" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>539</v>
       </c>
@@ -9515,11 +7601,8 @@
       <c r="D270" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E270" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>541</v>
       </c>
@@ -9532,11 +7615,8 @@
       <c r="D271" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E271" s="1" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>543</v>
       </c>
@@ -9549,11 +7629,8 @@
       <c r="D272" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E272" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>545</v>
       </c>
@@ -9566,11 +7643,8 @@
       <c r="D273" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E273" s="1" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>547</v>
       </c>
@@ -9583,11 +7657,8 @@
       <c r="D274" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E274" s="1" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>549</v>
       </c>
@@ -9600,11 +7671,8 @@
       <c r="D275" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E275" s="1" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>551</v>
       </c>
@@ -9617,11 +7685,8 @@
       <c r="D276" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E276" s="1" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>553</v>
       </c>
@@ -9634,11 +7699,8 @@
       <c r="D277" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E277" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>555</v>
       </c>
@@ -9651,11 +7713,8 @@
       <c r="D278" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E278" s="1" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>557</v>
       </c>
@@ -9668,11 +7727,8 @@
       <c r="D279" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E279" s="1" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>559</v>
       </c>
@@ -9685,11 +7741,8 @@
       <c r="D280" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E280" s="1" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>561</v>
       </c>
@@ -9702,11 +7755,8 @@
       <c r="D281" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E281" s="1" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>563</v>
       </c>
@@ -9719,11 +7769,8 @@
       <c r="D282" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E282" s="1" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>565</v>
       </c>
@@ -9736,11 +7783,8 @@
       <c r="D283" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E283" s="1" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>567</v>
       </c>
@@ -9753,11 +7797,8 @@
       <c r="D284" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E284" s="1" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>569</v>
       </c>
@@ -9770,11 +7811,8 @@
       <c r="D285" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E285" s="1" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>571</v>
       </c>
@@ -9787,11 +7825,8 @@
       <c r="D286" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E286" s="1" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>573</v>
       </c>
@@ -9804,11 +7839,8 @@
       <c r="D287" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E287" s="1" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>575</v>
       </c>
@@ -9821,11 +7853,8 @@
       <c r="D288" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E288" s="1" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>577</v>
       </c>
@@ -9838,11 +7867,8 @@
       <c r="D289" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E289" s="1" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>579</v>
       </c>
@@ -9855,11 +7881,8 @@
       <c r="D290" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E290" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>581</v>
       </c>
@@ -9872,11 +7895,8 @@
       <c r="D291" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E291" s="1" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>583</v>
       </c>
@@ -9889,11 +7909,8 @@
       <c r="D292" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E292" s="1" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>585</v>
       </c>
@@ -9906,11 +7923,8 @@
       <c r="D293" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E293" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>587</v>
       </c>
@@ -9923,11 +7937,8 @@
       <c r="D294" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E294" s="1" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>589</v>
       </c>
@@ -9940,11 +7951,8 @@
       <c r="D295" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E295" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>591</v>
       </c>
@@ -9957,11 +7965,8 @@
       <c r="D296" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E296" s="1" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>593</v>
       </c>
@@ -9974,11 +7979,8 @@
       <c r="D297" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E297" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>595</v>
       </c>
@@ -9991,11 +7993,8 @@
       <c r="D298" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E298" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>597</v>
       </c>
@@ -10008,11 +8007,8 @@
       <c r="D299" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E299" s="1" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>599</v>
       </c>
@@ -10025,11 +8021,8 @@
       <c r="D300" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E300" s="1" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>601</v>
       </c>
@@ -10042,11 +8035,8 @@
       <c r="D301" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E301" s="1" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>603</v>
       </c>
@@ -10059,11 +8049,8 @@
       <c r="D302" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E302" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>605</v>
       </c>
@@ -10076,11 +8063,8 @@
       <c r="D303" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E303" s="1" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>607</v>
       </c>
@@ -10093,11 +8077,8 @@
       <c r="D304" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E304" s="1" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>609</v>
       </c>
@@ -10110,11 +8091,8 @@
       <c r="D305" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E305" s="1" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>611</v>
       </c>
@@ -10127,11 +8105,8 @@
       <c r="D306" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E306" s="1" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>613</v>
       </c>
@@ -10144,11 +8119,8 @@
       <c r="D307" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E307" s="1" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>615</v>
       </c>
@@ -10161,11 +8133,8 @@
       <c r="D308" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E308" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>617</v>
       </c>
@@ -10178,11 +8147,8 @@
       <c r="D309" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E309" s="1" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>619</v>
       </c>
@@ -10195,11 +8161,8 @@
       <c r="D310" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E310" s="1" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>621</v>
       </c>
@@ -10212,11 +8175,8 @@
       <c r="D311" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E311" s="1" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>623</v>
       </c>
@@ -10229,11 +8189,8 @@
       <c r="D312" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E312" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>625</v>
       </c>
@@ -10246,11 +8203,8 @@
       <c r="D313" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E313" s="1" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>627</v>
       </c>
@@ -10263,11 +8217,8 @@
       <c r="D314" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E314" s="1" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>629</v>
       </c>
@@ -10280,11 +8231,8 @@
       <c r="D315" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E315" s="1" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>631</v>
       </c>
@@ -10297,11 +8245,8 @@
       <c r="D316" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E316" s="1" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>633</v>
       </c>
@@ -10314,11 +8259,8 @@
       <c r="D317" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E317" s="1" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>635</v>
       </c>
@@ -10331,11 +8273,8 @@
       <c r="D318" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E318" s="1" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>637</v>
       </c>
@@ -10348,11 +8287,8 @@
       <c r="D319" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E319" s="1" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>639</v>
       </c>
@@ -10365,11 +8301,8 @@
       <c r="D320" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E320" s="1" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>641</v>
       </c>
@@ -10382,11 +8315,8 @@
       <c r="D321" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E321" s="1" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>643</v>
       </c>
@@ -10399,11 +8329,8 @@
       <c r="D322" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E322" s="1" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>645</v>
       </c>
@@ -10416,11 +8343,8 @@
       <c r="D323" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E323" s="1" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>647</v>
       </c>
@@ -10433,11 +8357,8 @@
       <c r="D324" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E324" s="1" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>649</v>
       </c>
@@ -10450,11 +8371,8 @@
       <c r="D325" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E325" s="1" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>651</v>
       </c>
@@ -10467,11 +8385,8 @@
       <c r="D326" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E326" s="1" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>653</v>
       </c>
@@ -10484,11 +8399,8 @@
       <c r="D327" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E327" s="1" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>655</v>
       </c>
@@ -10501,11 +8413,8 @@
       <c r="D328" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E328" s="1" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>657</v>
       </c>
@@ -10518,11 +8427,8 @@
       <c r="D329" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E329" s="1" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>659</v>
       </c>
@@ -10535,11 +8441,8 @@
       <c r="D330" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E330" s="1" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>661</v>
       </c>
@@ -10552,11 +8455,8 @@
       <c r="D331" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E331" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>663</v>
       </c>
@@ -10569,11 +8469,8 @@
       <c r="D332" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E332" s="1" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>665</v>
       </c>
@@ -10586,11 +8483,8 @@
       <c r="D333" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E333" s="1" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>667</v>
       </c>
@@ -10603,11 +8497,8 @@
       <c r="D334" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E334" s="1" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>669</v>
       </c>
@@ -10620,11 +8511,8 @@
       <c r="D335" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E335" s="1" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>671</v>
       </c>
@@ -10637,11 +8525,8 @@
       <c r="D336" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E336" s="1" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>673</v>
       </c>
@@ -10654,11 +8539,8 @@
       <c r="D337" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E337" s="1" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>675</v>
       </c>
@@ -10671,11 +8553,8 @@
       <c r="D338" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E338" s="1" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>677</v>
       </c>
@@ -10688,11 +8567,8 @@
       <c r="D339" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E339" s="1" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>679</v>
       </c>
@@ -10705,11 +8581,8 @@
       <c r="D340" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E340" s="1" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>681</v>
       </c>
@@ -10722,11 +8595,8 @@
       <c r="D341" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E341" s="1" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>683</v>
       </c>
@@ -10739,11 +8609,8 @@
       <c r="D342" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E342" s="1" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>685</v>
       </c>
@@ -10756,11 +8623,8 @@
       <c r="D343" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E343" s="1" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>687</v>
       </c>
@@ -10773,11 +8637,8 @@
       <c r="D344" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E344" s="1" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>689</v>
       </c>
@@ -10790,11 +8651,8 @@
       <c r="D345" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E345" s="1" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>691</v>
       </c>
@@ -10807,11 +8665,8 @@
       <c r="D346" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E346" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>693</v>
       </c>
@@ -10824,11 +8679,8 @@
       <c r="D347" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E347" s="1" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>695</v>
       </c>
@@ -10841,11 +8693,8 @@
       <c r="D348" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E348" s="1" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>697</v>
       </c>
@@ -10858,11 +8707,8 @@
       <c r="D349" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E349" s="1" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>699</v>
       </c>
@@ -10875,11 +8721,8 @@
       <c r="D350" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E350" s="1" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>701</v>
       </c>
@@ -10892,11 +8735,8 @@
       <c r="D351" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E351" s="1" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>703</v>
       </c>
@@ -10909,11 +8749,8 @@
       <c r="D352" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E352" s="1" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>705</v>
       </c>
@@ -10926,11 +8763,8 @@
       <c r="D353" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E353" s="1" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>707</v>
       </c>
@@ -10943,11 +8777,8 @@
       <c r="D354" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E354" s="1" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>709</v>
       </c>
@@ -10960,11 +8791,8 @@
       <c r="D355" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E355" s="1" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>711</v>
       </c>
@@ -10977,11 +8805,8 @@
       <c r="D356" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E356" s="1" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>713</v>
       </c>
@@ -10994,11 +8819,8 @@
       <c r="D357" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E357" s="1" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>715</v>
       </c>
@@ -11011,11 +8833,8 @@
       <c r="D358" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E358" s="1" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>717</v>
       </c>
@@ -11028,11 +8847,8 @@
       <c r="D359" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E359" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>719</v>
       </c>
@@ -11045,11 +8861,8 @@
       <c r="D360" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E360" s="1" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>721</v>
       </c>
@@ -11062,11 +8875,8 @@
       <c r="D361" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E361" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>723</v>
       </c>
@@ -11079,11 +8889,8 @@
       <c r="D362" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E362" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>725</v>
       </c>
@@ -11096,11 +8903,8 @@
       <c r="D363" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E363" s="1" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>727</v>
       </c>
@@ -11113,11 +8917,8 @@
       <c r="D364" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E364" s="1" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>729</v>
       </c>
@@ -11130,11 +8931,8 @@
       <c r="D365" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E365" s="1" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>731</v>
       </c>
@@ -11147,11 +8945,8 @@
       <c r="D366" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E366" s="1" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>733</v>
       </c>
@@ -11164,11 +8959,8 @@
       <c r="D367" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E367" s="1" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>735</v>
       </c>
@@ -11181,11 +8973,8 @@
       <c r="D368" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E368" s="1" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>737</v>
       </c>
@@ -11198,11 +8987,8 @@
       <c r="D369" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E369" s="1" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>739</v>
       </c>
@@ -11215,11 +9001,8 @@
       <c r="D370" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E370" s="1" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>741</v>
       </c>
@@ -11232,11 +9015,8 @@
       <c r="D371" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E371" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>743</v>
       </c>
@@ -11249,11 +9029,8 @@
       <c r="D372" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E372" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>745</v>
       </c>
@@ -11266,11 +9043,8 @@
       <c r="D373" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E373" s="1" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>747</v>
       </c>
@@ -11283,11 +9057,8 @@
       <c r="D374" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E374" s="1" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>749</v>
       </c>
@@ -11300,11 +9071,8 @@
       <c r="D375" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E375" s="1" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>751</v>
       </c>
@@ -11317,11 +9085,8 @@
       <c r="D376" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E376" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>753</v>
       </c>
@@ -11334,11 +9099,8 @@
       <c r="D377" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E377" s="1" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>755</v>
       </c>
@@ -11351,11 +9113,8 @@
       <c r="D378" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E378" s="1" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>757</v>
       </c>
@@ -11368,11 +9127,8 @@
       <c r="D379" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E379" s="1" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>759</v>
       </c>
@@ -11385,11 +9141,8 @@
       <c r="D380" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E380" s="1" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>761</v>
       </c>
@@ -11402,11 +9155,8 @@
       <c r="D381" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E381" s="1" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>763</v>
       </c>
@@ -11419,11 +9169,8 @@
       <c r="D382" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E382" s="1" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>765</v>
       </c>
@@ -11436,11 +9183,8 @@
       <c r="D383" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E383" s="1" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>767</v>
       </c>
@@ -11453,11 +9197,8 @@
       <c r="D384" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E384" s="1" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>769</v>
       </c>
@@ -11470,11 +9211,8 @@
       <c r="D385" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E385" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>771</v>
       </c>
@@ -11487,11 +9225,8 @@
       <c r="D386" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E386" s="1" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>773</v>
       </c>
@@ -11504,11 +9239,8 @@
       <c r="D387" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E387" s="1" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>775</v>
       </c>
@@ -11521,11 +9253,8 @@
       <c r="D388" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E388" s="1" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>777</v>
       </c>
@@ -11538,11 +9267,8 @@
       <c r="D389" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E389" s="1" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>779</v>
       </c>
@@ -11555,11 +9281,8 @@
       <c r="D390" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E390" s="1" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>781</v>
       </c>
@@ -11572,11 +9295,8 @@
       <c r="D391" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E391" s="1" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>783</v>
       </c>
@@ -11589,11 +9309,8 @@
       <c r="D392" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E392" s="1" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>785</v>
       </c>
@@ -11606,11 +9323,8 @@
       <c r="D393" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E393" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>787</v>
       </c>
@@ -11623,11 +9337,8 @@
       <c r="D394" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E394" s="1" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>789</v>
       </c>
@@ -11640,11 +9351,8 @@
       <c r="D395" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E395" s="1" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>791</v>
       </c>
@@ -11657,11 +9365,8 @@
       <c r="D396" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E396" s="1" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>793</v>
       </c>
@@ -11674,11 +9379,8 @@
       <c r="D397" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E397" s="1" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>795</v>
       </c>
@@ -11691,11 +9393,8 @@
       <c r="D398" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E398" s="1" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>797</v>
       </c>
@@ -11708,11 +9407,8 @@
       <c r="D399" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E399" s="1" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>799</v>
       </c>
@@ -11725,11 +9421,8 @@
       <c r="D400" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E400" s="1" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>801</v>
       </c>
@@ -11742,11 +9435,8 @@
       <c r="D401" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E401" s="1" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>803</v>
       </c>
@@ -11759,11 +9449,8 @@
       <c r="D402" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E402" s="1" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>805</v>
       </c>
@@ -11776,11 +9463,8 @@
       <c r="D403" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E403" s="1" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>807</v>
       </c>
@@ -11793,11 +9477,8 @@
       <c r="D404" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E404" s="1" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>809</v>
       </c>
@@ -11810,11 +9491,8 @@
       <c r="D405" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E405" s="1" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>811</v>
       </c>
@@ -11827,11 +9505,8 @@
       <c r="D406" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E406" s="1" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>813</v>
       </c>
@@ -11844,11 +9519,8 @@
       <c r="D407" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E407" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>815</v>
       </c>
@@ -11861,11 +9533,8 @@
       <c r="D408" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E408" s="1" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>817</v>
       </c>
@@ -11878,11 +9547,8 @@
       <c r="D409" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E409" s="1" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>819</v>
       </c>
@@ -11895,11 +9561,8 @@
       <c r="D410" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E410" s="1" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>821</v>
       </c>
@@ -11912,11 +9575,8 @@
       <c r="D411" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E411" s="1" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>823</v>
       </c>
@@ -11929,11 +9589,8 @@
       <c r="D412" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E412" s="1" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>825</v>
       </c>
@@ -11946,11 +9603,8 @@
       <c r="D413" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E413" s="1" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>827</v>
       </c>
@@ -11963,11 +9617,8 @@
       <c r="D414" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E414" s="1" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>829</v>
       </c>
@@ -11980,11 +9631,8 @@
       <c r="D415" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E415" s="1" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>831</v>
       </c>
@@ -11997,11 +9645,8 @@
       <c r="D416" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E416" s="1" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>833</v>
       </c>
@@ -12014,11 +9659,8 @@
       <c r="D417" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E417" s="1" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>835</v>
       </c>
@@ -12031,11 +9673,8 @@
       <c r="D418" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E418" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>837</v>
       </c>
@@ -12048,11 +9687,8 @@
       <c r="D419" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E419" s="1" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>839</v>
       </c>
@@ -12065,11 +9701,8 @@
       <c r="D420" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E420" s="1" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>841</v>
       </c>
@@ -12082,11 +9715,8 @@
       <c r="D421" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E421" s="1" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>843</v>
       </c>
@@ -12099,11 +9729,8 @@
       <c r="D422" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E422" s="1" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>845</v>
       </c>
@@ -12116,11 +9743,8 @@
       <c r="D423" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E423" s="1" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>847</v>
       </c>
@@ -12133,11 +9757,8 @@
       <c r="D424" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E424" s="1" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>849</v>
       </c>
@@ -12150,11 +9771,8 @@
       <c r="D425" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E425" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>851</v>
       </c>
@@ -12167,11 +9785,8 @@
       <c r="D426" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E426" s="1" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>853</v>
       </c>
@@ -12184,11 +9799,8 @@
       <c r="D427" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E427" s="1" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>855</v>
       </c>
@@ -12201,11 +9813,8 @@
       <c r="D428" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E428" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>857</v>
       </c>
@@ -12218,11 +9827,8 @@
       <c r="D429" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E429" s="1" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>859</v>
       </c>
@@ -12235,11 +9841,8 @@
       <c r="D430" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E430" s="1" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>861</v>
       </c>
@@ -12252,11 +9855,8 @@
       <c r="D431" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E431" s="1" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>863</v>
       </c>
@@ -12269,11 +9869,8 @@
       <c r="D432" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E432" s="1" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>865</v>
       </c>
@@ -12286,11 +9883,8 @@
       <c r="D433" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E433" s="1" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>867</v>
       </c>
@@ -12303,11 +9897,8 @@
       <c r="D434" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E434" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>869</v>
       </c>
@@ -12320,11 +9911,8 @@
       <c r="D435" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E435" s="1" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>871</v>
       </c>
@@ -12337,11 +9925,8 @@
       <c r="D436" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E436" s="1" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>873</v>
       </c>
@@ -12354,11 +9939,8 @@
       <c r="D437" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E437" s="1" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>875</v>
       </c>
@@ -12371,11 +9953,8 @@
       <c r="D438" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E438" s="1" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>877</v>
       </c>
@@ -12388,11 +9967,8 @@
       <c r="D439" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E439" s="1" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>879</v>
       </c>
@@ -12405,11 +9981,8 @@
       <c r="D440" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E440" s="1" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>881</v>
       </c>
@@ -12422,11 +9995,8 @@
       <c r="D441" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E441" s="1" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>883</v>
       </c>
@@ -12439,11 +10009,8 @@
       <c r="D442" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E442" s="1" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>885</v>
       </c>
@@ -12456,11 +10023,8 @@
       <c r="D443" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E443" s="1" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>887</v>
       </c>
@@ -12473,11 +10037,8 @@
       <c r="D444" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E444" s="1" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>889</v>
       </c>
@@ -12490,11 +10051,8 @@
       <c r="D445" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E445" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>891</v>
       </c>
@@ -12507,11 +10065,8 @@
       <c r="D446" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E446" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>893</v>
       </c>
@@ -12524,11 +10079,8 @@
       <c r="D447" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E447" s="1" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>895</v>
       </c>
@@ -12541,11 +10093,8 @@
       <c r="D448" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E448" s="1" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>897</v>
       </c>
@@ -12558,11 +10107,8 @@
       <c r="D449" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E449" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>899</v>
       </c>
@@ -12575,11 +10121,8 @@
       <c r="D450" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E450" s="1" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>901</v>
       </c>
@@ -12592,11 +10135,8 @@
       <c r="D451" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E451" s="1" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>903</v>
       </c>
@@ -12609,11 +10149,8 @@
       <c r="D452" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E452" s="1" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>905</v>
       </c>
@@ -12626,11 +10163,8 @@
       <c r="D453" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E453" s="1" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>907</v>
       </c>
@@ -12643,11 +10177,8 @@
       <c r="D454" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E454" s="1" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>909</v>
       </c>
@@ -12660,11 +10191,8 @@
       <c r="D455" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E455" s="1" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>911</v>
       </c>
@@ -12677,11 +10205,8 @@
       <c r="D456" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E456" s="1" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>913</v>
       </c>
@@ -12694,11 +10219,8 @@
       <c r="D457" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E457" s="1" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>915</v>
       </c>
@@ -12711,11 +10233,8 @@
       <c r="D458" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E458" s="1" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>917</v>
       </c>
@@ -12728,11 +10247,8 @@
       <c r="D459" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E459" s="1" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>919</v>
       </c>
@@ -12745,11 +10261,8 @@
       <c r="D460" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E460" s="1" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>921</v>
       </c>
@@ -12762,11 +10275,8 @@
       <c r="D461" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E461" s="1" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>923</v>
       </c>
@@ -12779,11 +10289,8 @@
       <c r="D462" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E462" s="1" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>925</v>
       </c>
@@ -12796,11 +10303,8 @@
       <c r="D463" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E463" s="1" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>927</v>
       </c>
@@ -12813,11 +10317,8 @@
       <c r="D464" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E464" s="1" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>929</v>
       </c>
@@ -12830,11 +10331,8 @@
       <c r="D465" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E465" s="1" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>931</v>
       </c>
@@ -12847,11 +10345,8 @@
       <c r="D466" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E466" s="1" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>933</v>
       </c>
@@ -12864,11 +10359,8 @@
       <c r="D467" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E467" s="1" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>935</v>
       </c>
@@ -12881,11 +10373,8 @@
       <c r="D468" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E468" s="1" t="s">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>937</v>
       </c>
@@ -12898,11 +10387,8 @@
       <c r="D469" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E469" s="1" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>939</v>
       </c>
@@ -12915,11 +10401,8 @@
       <c r="D470" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E470" s="1" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>941</v>
       </c>
@@ -12932,11 +10415,8 @@
       <c r="D471" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E471" s="1" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>943</v>
       </c>
@@ -12949,11 +10429,8 @@
       <c r="D472" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E472" s="1" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>945</v>
       </c>
@@ -12966,11 +10443,8 @@
       <c r="D473" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E473" s="1" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>947</v>
       </c>
@@ -12983,11 +10457,8 @@
       <c r="D474" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E474" s="1" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>949</v>
       </c>
@@ -13000,11 +10471,8 @@
       <c r="D475" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E475" s="1" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>951</v>
       </c>
@@ -13017,11 +10485,8 @@
       <c r="D476" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E476" s="1" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>953</v>
       </c>
@@ -13034,11 +10499,8 @@
       <c r="D477" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E477" s="1" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>955</v>
       </c>
@@ -13051,11 +10513,8 @@
       <c r="D478" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E478" s="1" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>957</v>
       </c>
@@ -13068,11 +10527,8 @@
       <c r="D479" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E479" s="1" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>959</v>
       </c>
@@ -13085,11 +10541,8 @@
       <c r="D480" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E480" s="1" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>961</v>
       </c>
@@ -13102,11 +10555,8 @@
       <c r="D481" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E481" s="1" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>963</v>
       </c>
@@ -13119,11 +10569,8 @@
       <c r="D482" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E482" s="1" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>965</v>
       </c>
@@ -13136,11 +10583,8 @@
       <c r="D483" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E483" s="1" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>967</v>
       </c>
@@ -13153,11 +10597,8 @@
       <c r="D484" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E484" s="1" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>969</v>
       </c>
@@ -13170,11 +10611,8 @@
       <c r="D485" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E485" s="1" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>971</v>
       </c>
@@ -13187,11 +10625,8 @@
       <c r="D486" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E486" s="1" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>973</v>
       </c>
@@ -13204,11 +10639,8 @@
       <c r="D487" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E487" s="1" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>975</v>
       </c>
@@ -13221,11 +10653,8 @@
       <c r="D488" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E488" s="1" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>977</v>
       </c>
@@ -13238,11 +10667,8 @@
       <c r="D489" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E489" s="1" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>979</v>
       </c>
@@ -13255,11 +10681,8 @@
       <c r="D490" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E490" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>981</v>
       </c>
@@ -13272,11 +10695,8 @@
       <c r="D491" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E491" s="1" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>983</v>
       </c>
@@ -13289,11 +10709,8 @@
       <c r="D492" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E492" s="1" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>985</v>
       </c>
@@ -13306,11 +10723,8 @@
       <c r="D493" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E493" s="1" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>987</v>
       </c>
@@ -13323,11 +10737,8 @@
       <c r="D494" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E494" s="1" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>989</v>
       </c>
@@ -13340,11 +10751,8 @@
       <c r="D495" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E495" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>991</v>
       </c>
@@ -13357,11 +10765,8 @@
       <c r="D496" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E496" s="1" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>993</v>
       </c>
@@ -13374,11 +10779,8 @@
       <c r="D497" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E497" s="1" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>995</v>
       </c>
@@ -13391,11 +10793,8 @@
       <c r="D498" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E498" s="1" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>997</v>
       </c>
@@ -13408,11 +10807,8 @@
       <c r="D499" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E499" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>999</v>
       </c>
@@ -13425,11 +10821,8 @@
       <c r="D500" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E500" s="1" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>1001</v>
       </c>
@@ -13442,11 +10835,8 @@
       <c r="D501" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E501" s="1" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>1003</v>
       </c>
@@ -13459,11 +10849,8 @@
       <c r="D502" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E502" s="1" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>1005</v>
       </c>
@@ -13476,11 +10863,8 @@
       <c r="D503" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E503" s="1" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>1007</v>
       </c>
@@ -13493,11 +10877,8 @@
       <c r="D504" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E504" s="1" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>1009</v>
       </c>
@@ -13510,11 +10891,8 @@
       <c r="D505" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E505" s="1" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>1011</v>
       </c>
@@ -13527,11 +10905,8 @@
       <c r="D506" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E506" s="1" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>1013</v>
       </c>
@@ -13544,11 +10919,8 @@
       <c r="D507" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E507" s="1" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>1015</v>
       </c>
@@ -13561,11 +10933,8 @@
       <c r="D508" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E508" s="1" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>1017</v>
       </c>
@@ -13578,11 +10947,8 @@
       <c r="D509" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E509" s="1" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>1019</v>
       </c>
@@ -13595,11 +10961,8 @@
       <c r="D510" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E510" s="1" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>1021</v>
       </c>
@@ -13612,11 +10975,8 @@
       <c r="D511" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E511" s="1" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>1023</v>
       </c>
@@ -13629,11 +10989,8 @@
       <c r="D512" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E512" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>1025</v>
       </c>
@@ -13646,11 +11003,8 @@
       <c r="D513" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E513" s="1" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>1027</v>
       </c>
@@ -13663,11 +11017,8 @@
       <c r="D514" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E514" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>1029</v>
       </c>
@@ -13680,11 +11031,8 @@
       <c r="D515" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E515" s="1" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>1031</v>
       </c>
@@ -13697,11 +11045,8 @@
       <c r="D516" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E516" s="1" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>1033</v>
       </c>
@@ -13714,11 +11059,8 @@
       <c r="D517" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E517" s="1" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>1035</v>
       </c>
@@ -13731,11 +11073,8 @@
       <c r="D518" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E518" s="1" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>1037</v>
       </c>
@@ -13748,11 +11087,8 @@
       <c r="D519" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E519" s="1" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>1039</v>
       </c>
@@ -13765,11 +11101,8 @@
       <c r="D520" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E520" s="1" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>1041</v>
       </c>
@@ -13782,11 +11115,8 @@
       <c r="D521" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E521" s="1" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>1043</v>
       </c>
@@ -13799,11 +11129,8 @@
       <c r="D522" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E522" s="1" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>1045</v>
       </c>
@@ -13816,11 +11143,8 @@
       <c r="D523" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E523" s="1" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>1047</v>
       </c>
@@ -13833,11 +11157,8 @@
       <c r="D524" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E524" s="1" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>1049</v>
       </c>
@@ -13850,11 +11171,8 @@
       <c r="D525" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E525" s="1" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>1051</v>
       </c>
@@ -13867,11 +11185,8 @@
       <c r="D526" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E526" s="1" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>1053</v>
       </c>
@@ -13884,11 +11199,8 @@
       <c r="D527" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E527" s="1" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>1055</v>
       </c>
@@ -13901,11 +11213,8 @@
       <c r="D528" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E528" s="1" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>1057</v>
       </c>
@@ -13918,11 +11227,8 @@
       <c r="D529" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E529" s="1" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>1059</v>
       </c>
@@ -13935,11 +11241,8 @@
       <c r="D530" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E530" s="1" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>1061</v>
       </c>
@@ -13952,11 +11255,8 @@
       <c r="D531" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E531" s="1" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>1063</v>
       </c>
@@ -13969,11 +11269,8 @@
       <c r="D532" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E532" s="1" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>1065</v>
       </c>
@@ -13986,11 +11283,8 @@
       <c r="D533" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E533" s="1" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>1067</v>
       </c>
@@ -14003,11 +11297,8 @@
       <c r="D534" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E534" s="1" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>1069</v>
       </c>
@@ -14020,11 +11311,8 @@
       <c r="D535" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E535" s="1" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>1071</v>
       </c>
@@ -14037,11 +11325,8 @@
       <c r="D536" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E536" s="1" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>1073</v>
       </c>
@@ -14054,11 +11339,8 @@
       <c r="D537" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E537" s="1" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>1075</v>
       </c>
@@ -14071,11 +11353,8 @@
       <c r="D538" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E538" s="1" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>1077</v>
       </c>
@@ -14088,11 +11367,8 @@
       <c r="D539" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E539" s="1" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>1079</v>
       </c>
@@ -14105,11 +11381,8 @@
       <c r="D540" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E540" s="1" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>1081</v>
       </c>
@@ -14122,11 +11395,8 @@
       <c r="D541" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E541" s="1" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>1083</v>
       </c>
@@ -14139,11 +11409,8 @@
       <c r="D542" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E542" s="1" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>1085</v>
       </c>
@@ -14156,11 +11423,8 @@
       <c r="D543" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E543" s="1" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>1087</v>
       </c>
@@ -14173,11 +11437,8 @@
       <c r="D544" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E544" s="1" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>1089</v>
       </c>
@@ -14190,11 +11451,8 @@
       <c r="D545" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E545" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>1091</v>
       </c>
@@ -14207,11 +11465,8 @@
       <c r="D546" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E546" s="1" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>1093</v>
       </c>
@@ -14224,11 +11479,8 @@
       <c r="D547" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E547" s="1" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>1095</v>
       </c>
@@ -14241,11 +11493,8 @@
       <c r="D548" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E548" s="1" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>1097</v>
       </c>
@@ -14258,11 +11507,8 @@
       <c r="D549" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E549" s="1" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>1099</v>
       </c>
@@ -14275,11 +11521,8 @@
       <c r="D550" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E550" s="1" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>1101</v>
       </c>
@@ -14292,11 +11535,8 @@
       <c r="D551" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E551" s="1" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>1103</v>
       </c>
@@ -14309,11 +11549,8 @@
       <c r="D552" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E552" s="1" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>1105</v>
       </c>
@@ -14326,11 +11563,8 @@
       <c r="D553" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E553" s="1" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>1107</v>
       </c>
@@ -14343,11 +11577,8 @@
       <c r="D554" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E554" s="1" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>1109</v>
       </c>
@@ -14360,11 +11591,8 @@
       <c r="D555" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E555" s="1" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>1111</v>
       </c>
@@ -14377,11 +11605,8 @@
       <c r="D556" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E556" s="1" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>1113</v>
       </c>
@@ -14394,11 +11619,8 @@
       <c r="D557" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E557" s="1" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>1115</v>
       </c>
@@ -14411,11 +11633,8 @@
       <c r="D558" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E558" s="1" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>1117</v>
       </c>
@@ -14428,11 +11647,8 @@
       <c r="D559" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E559" s="1" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>1119</v>
       </c>
@@ -14445,11 +11661,8 @@
       <c r="D560" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E560" s="1" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>1121</v>
       </c>
@@ -14462,11 +11675,8 @@
       <c r="D561" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E561" s="1" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>1123</v>
       </c>
@@ -14479,11 +11689,8 @@
       <c r="D562" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E562" s="1" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>1125</v>
       </c>
@@ -14496,11 +11703,8 @@
       <c r="D563" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E563" s="1" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>1127</v>
       </c>
@@ -14513,11 +11717,8 @@
       <c r="D564" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E564" s="1" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>1129</v>
       </c>
@@ -14530,11 +11731,8 @@
       <c r="D565" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E565" s="1" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>1131</v>
       </c>
@@ -14547,11 +11745,8 @@
       <c r="D566" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E566" s="1" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>1133</v>
       </c>
@@ -14564,11 +11759,8 @@
       <c r="D567" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E567" s="1" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>1135</v>
       </c>
@@ -14581,11 +11773,8 @@
       <c r="D568" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E568" s="1" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>1137</v>
       </c>
@@ -14598,11 +11787,8 @@
       <c r="D569" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E569" s="1" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>1139</v>
       </c>
@@ -14615,11 +11801,8 @@
       <c r="D570" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E570" s="1" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>1141</v>
       </c>
@@ -14632,11 +11815,8 @@
       <c r="D571" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E571" s="1" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>1143</v>
       </c>
@@ -14649,11 +11829,8 @@
       <c r="D572" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E572" s="1" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>1145</v>
       </c>
@@ -14666,11 +11843,8 @@
       <c r="D573" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="E573" s="1" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>1147</v>
       </c>
@@ -14682,9 +11856,6 @@
       </c>
       <c r="D574" s="1" t="s">
         <v>1150</v>
-      </c>
-      <c r="E574" s="1" t="s">
-        <v>1519</v>
       </c>
     </row>
   </sheetData>
